--- a/Content/ExcelFiles/ListStudent.xlsx
+++ b/Content/ExcelFiles/ListStudent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3CAD76-9D4E-480A-B5DE-E907562F7956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36596C34-9573-4B97-8318-70B668BA2A58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3848B2EF-D674-441F-BC34-448F0B9E3DCA}"/>
   </bookViews>
@@ -2865,13 +2865,14 @@
   <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
     <col min="8" max="8" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
